--- a/Accounting/APV/templates/APV_Others.xlsx
+++ b/Accounting/APV/templates/APV_Others.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\st_myxfinancials\Accounting\APV\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DD6B02-7F45-4B56-AF62-043E4685FE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80C6400-B0B4-408E-AF76-A266261D2D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{D9A59629-92C2-414C-986B-4CDE5C2A7545}"/>
   </bookViews>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>DATE</t>
-  </si>
-  <si>
     <t>SUPPLIER NAME</t>
   </si>
   <si>
@@ -48,9 +45,6 @@
     <t>PARTICULARS</t>
   </si>
   <si>
-    <t>OPERATING EXPENSES</t>
-  </si>
-  <si>
     <t>VATABALE AMOUNT</t>
   </si>
   <si>
@@ -79,6 +73,12 @@
   </si>
   <si>
     <t>VAT CODE</t>
+  </si>
+  <si>
+    <t>DATE (yyyy-mm-dd)</t>
+  </si>
+  <si>
+    <t>ACCT DESC</t>
   </si>
 </sst>
 </file>
@@ -447,12 +447,12 @@
   <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
@@ -469,49 +469,49 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>7</v>
-      </c>
-      <c r="N1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
